--- a/simulacion_BRK-B.xlsx
+++ b/simulacion_BRK-B.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>477.1199951171875</v>
+      </c>
+      <c r="C2" t="n">
         <v>477.8999938964844</v>
       </c>
-      <c r="C2" t="n">
-        <v>717.3305118800132</v>
-      </c>
       <c r="D2" t="n">
-        <v>710.2639827311384</v>
+        <v>481.1128510044615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>476.1300048828125</v>
+      </c>
+      <c r="C3" t="n">
         <v>477.1199951171875</v>
       </c>
-      <c r="C3" t="n">
-        <v>484.9802401271393</v>
-      </c>
       <c r="D3" t="n">
-        <v>494.4821091627015</v>
+        <v>489.8585839254337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>477.3799133300781</v>
+      </c>
+      <c r="C4" t="n">
         <v>476.1300048828125</v>
       </c>
-      <c r="C4" t="n">
-        <v>480.2114786356042</v>
-      </c>
       <c r="D4" t="n">
-        <v>491.5064084115671</v>
+        <v>473.0241796832669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>477.4675903320312</v>
+      </c>
+      <c r="C5" t="n">
         <v>477.3799133300781</v>
       </c>
-      <c r="C5" t="n">
-        <v>471.2955963880004</v>
-      </c>
       <c r="D5" t="n">
-        <v>486.2968193584611</v>
+        <v>484.2510013603114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>478.2366943359375</v>
+      </c>
+      <c r="C6" t="n">
         <v>477.4675903320312</v>
       </c>
-      <c r="C6" t="n">
-        <v>483.617963447543</v>
-      </c>
       <c r="D6" t="n">
-        <v>486.639552437519</v>
+        <v>484.5622380781906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>479.2000122070312</v>
+      </c>
+      <c r="C7" t="n">
         <v>478.2366943359375</v>
       </c>
-      <c r="C7" t="n">
-        <v>479.5125161687888</v>
-      </c>
       <c r="D7" t="n">
-        <v>459.0051389391502</v>
+        <v>472.8172049597523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>477.8099975585938</v>
+      </c>
+      <c r="C8" t="n">
         <v>479.2000122070312</v>
       </c>
-      <c r="C8" t="n">
-        <v>471.1584040259246</v>
-      </c>
       <c r="D8" t="n">
-        <v>493.0499597022919</v>
+        <v>486.3686712203306</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>477.1400146484375</v>
+      </c>
+      <c r="C9" t="n">
         <v>477.8099975585938</v>
       </c>
-      <c r="C9" t="n">
-        <v>471.4932508684026</v>
-      </c>
       <c r="D9" t="n">
-        <v>479.4072517435405</v>
+        <v>475.5549507719016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>476.5199890136719</v>
+      </c>
+      <c r="C10" t="n">
         <v>477.1400146484375</v>
       </c>
-      <c r="C10" t="n">
-        <v>472.3722034738945</v>
-      </c>
       <c r="D10" t="n">
-        <v>476.5197726711641</v>
+        <v>498.4437122265703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>476.1199951171875</v>
+      </c>
+      <c r="C11" t="n">
         <v>476.5199890136719</v>
       </c>
-      <c r="C11" t="n">
-        <v>472.2882012125137</v>
-      </c>
       <c r="D11" t="n">
-        <v>479.3782436277946</v>
+        <v>462.5624233236657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>476.510009765625</v>
+      </c>
+      <c r="C12" t="n">
         <v>476.1199951171875</v>
       </c>
-      <c r="C12" t="n">
-        <v>467.0589991714269</v>
-      </c>
       <c r="D12" t="n">
-        <v>495.7460269332176</v>
+        <v>462.6102146511383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>476.8599853515625</v>
+      </c>
+      <c r="C13" t="n">
         <v>476.510009765625</v>
       </c>
-      <c r="C13" t="n">
-        <v>483.259802190768</v>
-      </c>
       <c r="D13" t="n">
-        <v>474.1184535646298</v>
+        <v>474.5905620851281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>477.9100036621094</v>
+      </c>
+      <c r="C14" t="n">
         <v>476.8599853515625</v>
       </c>
-      <c r="C14" t="n">
-        <v>485.7160336067914</v>
-      </c>
       <c r="D14" t="n">
-        <v>470.5511968443979</v>
+        <v>468.8700996682331</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>471.960693359375</v>
+      </c>
+      <c r="C15" t="n">
         <v>477.9100036621094</v>
       </c>
-      <c r="C15" t="n">
-        <v>476.4755363531826</v>
-      </c>
       <c r="D15" t="n">
-        <v>491.066427255019</v>
+        <v>491.8447525936203</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>473.8099975585938</v>
+      </c>
+      <c r="C16" t="n">
         <v>471.960693359375</v>
       </c>
-      <c r="C16" t="n">
-        <v>485.3180935876628</v>
-      </c>
       <c r="D16" t="n">
-        <v>487.1732065455906</v>
+        <v>480.7287379051372</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>474.8099975585938</v>
+      </c>
+      <c r="C17" t="n">
         <v>473.8099975585938</v>
       </c>
-      <c r="C17" t="n">
-        <v>474.1163945569264</v>
-      </c>
       <c r="D17" t="n">
-        <v>473.3182450445088</v>
+        <v>454.9223129983978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>475.2000122070312</v>
+      </c>
+      <c r="C18" t="n">
         <v>474.8099975585938</v>
       </c>
-      <c r="C18" t="n">
-        <v>468.2610246088841</v>
-      </c>
       <c r="D18" t="n">
-        <v>476.4156099973508</v>
+        <v>467.7377256227846</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>475.8900146484375</v>
+      </c>
+      <c r="C19" t="n">
         <v>475.2000122070312</v>
       </c>
-      <c r="C19" t="n">
-        <v>465.3074932670961</v>
-      </c>
       <c r="D19" t="n">
-        <v>477.3123275009081</v>
+        <v>465.0498156032133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>476.3299865722656</v>
+      </c>
+      <c r="C20" t="n">
         <v>475.8900146484375</v>
       </c>
-      <c r="C20" t="n">
-        <v>472.2901843543744</v>
-      </c>
       <c r="D20" t="n">
-        <v>484.0093225478658</v>
+        <v>472.5471853060204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
+        <v>475.5599975585938</v>
+      </c>
+      <c r="C21" t="n">
         <v>476.3299865722656</v>
       </c>
-      <c r="C21" t="n">
-        <v>470.0394072792096</v>
-      </c>
       <c r="D21" t="n">
-        <v>462.2001885768797</v>
+        <v>476.6251869852231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>476.4299926757812</v>
+      </c>
+      <c r="C22" t="n">
         <v>475.5599975585938</v>
       </c>
-      <c r="C22" t="n">
-        <v>471.7479287701213</v>
-      </c>
       <c r="D22" t="n">
-        <v>456.150912817332</v>
+        <v>479.8403996255669</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>476.9549865722656</v>
+      </c>
+      <c r="C23" t="n">
         <v>476.4299926757812</v>
       </c>
-      <c r="C23" t="n">
-        <v>483.102780119976</v>
-      </c>
       <c r="D23" t="n">
-        <v>486.97282100551</v>
+        <v>476.8463401757896</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>477.1176147460938</v>
+      </c>
+      <c r="C24" t="n">
         <v>476.9549865722656</v>
       </c>
-      <c r="C24" t="n">
-        <v>487.983164111465</v>
-      </c>
       <c r="D24" t="n">
-        <v>475.2139968617726</v>
+        <v>498.5782136310185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>476.6740112304688</v>
+      </c>
+      <c r="C25" t="n">
         <v>477.1176147460938</v>
       </c>
-      <c r="C25" t="n">
-        <v>483.2487918682593</v>
-      </c>
       <c r="D25" t="n">
-        <v>463.5450945545207</v>
+        <v>471.685873830732</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>476.6849975585938</v>
+      </c>
+      <c r="C26" t="n">
         <v>476.6740112304688</v>
       </c>
-      <c r="C26" t="n">
-        <v>466.7275784567181</v>
-      </c>
       <c r="D26" t="n">
-        <v>498.3657024803883</v>
+        <v>466.54429113052</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>476.9500122070312</v>
+      </c>
+      <c r="C27" t="n">
         <v>476.6849975585938</v>
       </c>
-      <c r="C27" t="n">
-        <v>471.6314216280011</v>
-      </c>
       <c r="D27" t="n">
-        <v>473.4548093361078</v>
+        <v>475.1415446680317</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>476.4100036621094</v>
+      </c>
+      <c r="C28" t="n">
         <v>476.9500122070312</v>
       </c>
-      <c r="C28" t="n">
-        <v>481.5177925075513</v>
-      </c>
       <c r="D28" t="n">
-        <v>466.3349144731379</v>
+        <v>490.5508740666817</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>472.2214965820312</v>
+      </c>
+      <c r="C29" t="n">
         <v>476.4100036621094</v>
       </c>
-      <c r="C29" t="n">
-        <v>475.3458127702586</v>
-      </c>
       <c r="D29" t="n">
-        <v>479.9672882742992</v>
+        <v>465.0362247423653</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>472.5400085449219</v>
+      </c>
+      <c r="C30" t="n">
         <v>472.2214965820312</v>
       </c>
-      <c r="C30" t="n">
-        <v>485.2302190145757</v>
-      </c>
       <c r="D30" t="n">
-        <v>484.0148222270608</v>
+        <v>491.8666971650148</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
+        <v>471.989990234375</v>
+      </c>
+      <c r="C31" t="n">
         <v>472.5400085449219</v>
       </c>
-      <c r="C31" t="n">
-        <v>472.6392387397404</v>
-      </c>
       <c r="D31" t="n">
-        <v>479.678775590335</v>
+        <v>478.5859702044506</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>471.8599853515625</v>
+      </c>
+      <c r="C32" t="n">
         <v>471.989990234375</v>
       </c>
-      <c r="C32" t="n">
-        <v>481.3017626163071</v>
-      </c>
       <c r="D32" t="n">
-        <v>473.9257782346399</v>
+        <v>473.2872439182959</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>470.9312133789062</v>
+      </c>
+      <c r="C33" t="n">
         <v>471.8599853515625</v>
       </c>
-      <c r="C33" t="n">
-        <v>468.8828336984591</v>
-      </c>
       <c r="D33" t="n">
-        <v>467.8065122960068</v>
+        <v>474.2687753934814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>471.6499938964844</v>
+      </c>
+      <c r="C34" t="n">
         <v>470.9312133789062</v>
       </c>
-      <c r="C34" t="n">
-        <v>480.2433085133418</v>
-      </c>
       <c r="D34" t="n">
-        <v>487.8891791084137</v>
+        <v>472.2577908070573</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>470.0299987792969</v>
+      </c>
+      <c r="C35" t="n">
         <v>471.6499938964844</v>
       </c>
-      <c r="C35" t="n">
-        <v>467.587463277956</v>
-      </c>
       <c r="D35" t="n">
-        <v>489.5361662970749</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>470.0299987792969</v>
-      </c>
-      <c r="C36" t="n">
-        <v>472.1008675269165</v>
-      </c>
-      <c r="D36" t="n">
-        <v>469.7493840250925</v>
+        <v>474.3269143657882</v>
       </c>
     </row>
   </sheetData>
